--- a/data/trans_dic/P37A$vacunapreferencia-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02927376792742967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07254018905222055</v>
+        <v>0.07254018905222057</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0266933826127367</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02349383999113576</v>
+        <v>0.02263735845514503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02244970591652765</v>
+        <v>0.02239239545506325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01917128469168297</v>
+        <v>0.01958570695734386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05462362757654546</v>
+        <v>0.05413904342328606</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01877361646498561</v>
+        <v>0.01790510503373188</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01772687833354551</v>
+        <v>0.01841233711459376</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01634276747021188</v>
+        <v>0.016349861825921</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05886490817696761</v>
+        <v>0.05834091264326939</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02259315076325002</v>
+        <v>0.02337253825623686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02244267576174357</v>
+        <v>0.02190591513559277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02021243059376874</v>
+        <v>0.02080595594550811</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06033910050373376</v>
+        <v>0.06159914666202449</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04448954472484652</v>
+        <v>0.04605284100637674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04651564611376225</v>
+        <v>0.04662130403095942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04487250669507356</v>
+        <v>0.0416079374646782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09281393849112853</v>
+        <v>0.09395003764123873</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03650366342416678</v>
+        <v>0.03605231179266375</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03531892949382183</v>
+        <v>0.03499101327653977</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03706862318647306</v>
+        <v>0.03795731259995629</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08829886492858638</v>
+        <v>0.08591711545090049</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03726410815473399</v>
+        <v>0.03785562337858858</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03670551317863449</v>
+        <v>0.0359642889517086</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03654281010971241</v>
+        <v>0.03639139919882648</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08405985352848253</v>
+        <v>0.08428562746174777</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01321917912436027</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07767909853176384</v>
+        <v>0.07767909853176383</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02040389215132223</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01393453135513596</v>
+        <v>0.01364558949674723</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02303423446610084</v>
+        <v>0.02293701194375206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007365907906037043</v>
+        <v>0.007388029337858156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06556401093604158</v>
+        <v>0.06639702664353572</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01464999126180719</v>
+        <v>0.01437215066181278</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009955768002305456</v>
+        <v>0.009489712028120989</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008570865863622372</v>
+        <v>0.008217258741904451</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06823727341980085</v>
+        <v>0.06689810175220137</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01527580858190546</v>
+        <v>0.0159228702054033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01844260146768235</v>
+        <v>0.01841553547612271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008759688853255738</v>
+        <v>0.009075911116192116</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07037362832884908</v>
+        <v>0.07015195765866557</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02891420982874969</v>
+        <v>0.02806929931201074</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03948508921301547</v>
+        <v>0.03896740041276524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01755265537225157</v>
+        <v>0.01722120824424384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09004241702193658</v>
+        <v>0.08903061338349209</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02940877032701619</v>
+        <v>0.02955798801729818</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02176678535763363</v>
+        <v>0.02189219389544262</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02010357828227356</v>
+        <v>0.0191382314973021</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08793409284392324</v>
+        <v>0.08763127200068896</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02530740068946094</v>
+        <v>0.02665867226997534</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02859022696184046</v>
+        <v>0.0288099113663257</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01630813993503068</v>
+        <v>0.01647626913687766</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08568995231312036</v>
+        <v>0.0853802541735017</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01568167180358245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08314807920886713</v>
+        <v>0.08314807920886712</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03638669429673043</v>
@@ -969,7 +969,7 @@
         <v>0.01843698542435444</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08578571911197634</v>
+        <v>0.08578571911197633</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02616689756050615</v>
+        <v>0.02766353048123572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01477620028716155</v>
+        <v>0.01414249024435526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007188387934279564</v>
+        <v>0.007055536148399722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06569466286860036</v>
+        <v>0.06572664241891024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02008557015532985</v>
+        <v>0.02293544180556085</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006199161142608994</v>
+        <v>0.006527523805991986</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01162379235654122</v>
+        <v>0.011139648036982</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07059475714491177</v>
+        <v>0.07227253294223447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02852763593985784</v>
+        <v>0.02812398617550226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01283939441571788</v>
+        <v>0.01252476553233067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01137160955480844</v>
+        <v>0.01120924084830466</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07279727308784346</v>
+        <v>0.0729143534014159</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06259632733636812</v>
+        <v>0.06508462464403783</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0463345907061128</v>
+        <v>0.04419151181580279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02776935296326501</v>
+        <v>0.02952001407071902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1078547723032485</v>
+        <v>0.1071327276024288</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05787826247401717</v>
+        <v>0.0578652484007493</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03364584298825322</v>
+        <v>0.03119357955588345</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03787300346277172</v>
+        <v>0.03538151633135467</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1085791898841258</v>
+        <v>0.1064414190636128</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05404246658591397</v>
+        <v>0.05307175021609394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03334826085407002</v>
+        <v>0.03363890183843476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02743651679272542</v>
+        <v>0.02810644367242282</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1011345144748011</v>
+        <v>0.100043721292328</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01805860437937589</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07852058511750479</v>
+        <v>0.0785205851175048</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02653677411263829</v>
@@ -1105,7 +1105,7 @@
         <v>0.01715441235209765</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07824325539195849</v>
+        <v>0.0782432553919585</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02446916483049278</v>
+        <v>0.02461524561416679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01224547310763252</v>
+        <v>0.01189128417397446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0696913992689748</v>
+        <v>0.06947612236053737</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01464739600215669</v>
+        <v>0.01519682401269984</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01406196454462959</v>
+        <v>0.0138119516985261</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07157787360406169</v>
+        <v>0.07158547602651984</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02125424827306859</v>
+        <v>0.02102050396127704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01388684850971032</v>
+        <v>0.01397682613939151</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07262093936056162</v>
+        <v>0.07203829758334873</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03737342885617572</v>
+        <v>0.03682686284979002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02076420807046421</v>
+        <v>0.02078762766348874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08766785789761353</v>
+        <v>0.08838178760297366</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02388489356810329</v>
+        <v>0.02465038695582922</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02327299423948625</v>
+        <v>0.02320672478868238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08682275814344674</v>
+        <v>0.0860378160080038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02883535885194822</v>
+        <v>0.02858013908339357</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02038964778002114</v>
+        <v>0.02055398211704935</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08439247735812914</v>
+        <v>0.08459734068462607</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24239</v>
+        <v>23355</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21880</v>
+        <v>21825</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14462</v>
+        <v>14774</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31601</v>
+        <v>31321</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24689</v>
+        <v>23547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23715</v>
+        <v>24632</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16255</v>
+        <v>16263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48389</v>
+        <v>47958</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53022</v>
+        <v>54851</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>51897</v>
+        <v>50656</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>35352</v>
+        <v>36390</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>84509</v>
+        <v>86274</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45901</v>
+        <v>47514</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45336</v>
+        <v>45439</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33849</v>
+        <v>31387</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53696</v>
+        <v>54353</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48006</v>
+        <v>47413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47250</v>
+        <v>46811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>36871</v>
+        <v>37755</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>72585</v>
+        <v>70627</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87453</v>
+        <v>88841</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>84879</v>
+        <v>83165</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63914</v>
+        <v>63649</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>117731</v>
+        <v>118048</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23597</v>
+        <v>23108</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45238</v>
+        <v>45047</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15294</v>
+        <v>15340</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>146245</v>
+        <v>148103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23259</v>
+        <v>22818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17500</v>
+        <v>16681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17041</v>
+        <v>16338</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>148170</v>
+        <v>145262</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50121</v>
+        <v>52244</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>68639</v>
+        <v>68538</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35605</v>
+        <v>36891</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>309782</v>
+        <v>308806</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48964</v>
+        <v>47533</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77547</v>
+        <v>76530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36446</v>
+        <v>35758</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>200846</v>
+        <v>198589</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46692</v>
+        <v>46928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38262</v>
+        <v>38482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39972</v>
+        <v>38053</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>190939</v>
+        <v>190282</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>83036</v>
+        <v>87469</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>106406</v>
+        <v>107224</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>66287</v>
+        <v>66971</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>377204</v>
+        <v>375840</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14429</v>
+        <v>15254</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7110</v>
+        <v>6805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3931</v>
+        <v>3859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>46747</v>
+        <v>46770</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9569</v>
+        <v>10927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2843</v>
+        <v>2994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6383</v>
+        <v>6117</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51878</v>
+        <v>53111</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>29321</v>
+        <v>28906</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12067</v>
+        <v>11771</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12464</v>
+        <v>12286</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>105299</v>
+        <v>105468</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34516</v>
+        <v>35888</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22295</v>
+        <v>21264</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15187</v>
+        <v>16144</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76748</v>
+        <v>76234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27574</v>
+        <v>27568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15431</v>
+        <v>14306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20798</v>
+        <v>19429</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79792</v>
+        <v>78221</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55546</v>
+        <v>54548</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31341</v>
+        <v>31614</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30071</v>
+        <v>30805</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>146287</v>
+        <v>144710</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83679</v>
+        <v>84179</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41361</v>
+        <v>40164</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>245361</v>
+        <v>244603</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>52060</v>
+        <v>54013</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>49668</v>
+        <v>48785</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>266864</v>
+        <v>266893</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>148227</v>
+        <v>146597</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>95954</v>
+        <v>96576</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>526428</v>
+        <v>522205</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127809</v>
+        <v>125940</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70134</v>
+        <v>70213</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>308651</v>
+        <v>311164</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84892</v>
+        <v>87613</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82203</v>
+        <v>81968</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>323702</v>
+        <v>320775</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>201098</v>
+        <v>199318</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>140887</v>
+        <v>142022</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>611760</v>
+        <v>613245</v>
       </c>
     </row>
     <row r="20">
